--- a/Data/InternationalReserves.xlsx
+++ b/Data/InternationalReserves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler/Desktop/COVID19-DOMINANCE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD94179-8BEE-894A-8A23-C048F06A7A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073880B-5930-B14C-AC0D-C256FA8C6CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_RAW_International Liquidity" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="1281">
   <si>
     <t>International Liquidity selected indicators</t>
   </si>
@@ -3886,7 +3886,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -4274,6 +4274,24 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -4288,24 +4306,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4496,12 +4496,12 @@
     </row>
     <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -4523,24 +4523,24 @@
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4581,12 +4581,12 @@
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -17732,8 +17732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95799FE4-AC44-A140-8934-C85B28253A06}">
   <dimension ref="A1:BL268"/>
   <sheetViews>
-    <sheetView topLeftCell="BG13" workbookViewId="0">
-      <selection activeCell="BN43" sqref="BN43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -59353,8 +59353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32C5C5-2D54-2F44-BB40-8CDBB2B4A675}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -60267,29 +60267,29 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="38"/>
+    <col min="4" max="4" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>1278</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>1279</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -60387,129 +60387,129 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>43465</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="32">
         <v>43466</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>63963922085.1007</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>2142030870.0096698</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>371933901818.42401</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>39848699139.811401</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>3091881257199.0898</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>47358571768.321899</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>7694112505.7842999</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>38609411065.137703</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>5934707914.0272503</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>30068270406.041599</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>117424645942.922</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>16536058089.5061</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>99850469255.370193</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>171444902467.495</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>2121303718.1074102</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>58904354232.794098</v>
       </c>
-      <c r="T2" s="37">
+      <c r="T2" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>71039872169.454498</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>111656116422.589</v>
       </c>
-      <c r="V2" s="37">
+      <c r="V2" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>29070399756.0135</v>
       </c>
-      <c r="W2" s="37">
+      <c r="W2" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>37856040837.934097</v>
       </c>
-      <c r="X2" s="37">
+      <c r="X2" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>381575041682.71899</v>
       </c>
-      <c r="Y2" s="37">
+      <c r="Y2" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>496156104403.823</v>
       </c>
-      <c r="Z2" s="37">
+      <c r="Z2" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>46478274116.6735</v>
       </c>
-      <c r="AA2" s="37">
+      <c r="AA2" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>6100102144.0823803</v>
       </c>
-      <c r="AB2" s="37">
+      <c r="AB2" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>72866830470.307999</v>
       </c>
-      <c r="AC2" s="37">
+      <c r="AC2" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>19818210004.102798</v>
       </c>
-      <c r="AD2" s="37">
+      <c r="AD2" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>15552280400.0103</v>
       </c>
-      <c r="AE2" s="37">
+      <c r="AE2" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>374425187183.508</v>
       </c>
-      <c r="AF2" s="37">
+      <c r="AF2" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>199296461437.522</v>
       </c>
-      <c r="AG2" s="37">
+      <c r="AG2" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000</f>
         <v>142150960354.664</v>
       </c>
@@ -60518,129 +60518,129 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="32">
         <v>43496</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>43497</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>64236209945.642799</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>2087331101.0883398</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>374117101825.68701</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>38896159121.281601</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>3107195141695.96</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>47930030022.551201</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>7115728302.79457</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>38564173337.722198</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>5434856865.4750299</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>29238957027.999901</v>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>116772193014.72099</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>15561746882.919001</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>100503159774.711</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>175242523080.91</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>2060188844.4525397</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>61127704108.8498</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>74079957876.908005</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>108195831590.561</v>
       </c>
-      <c r="V3" s="37">
+      <c r="V3" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>28767075978.898998</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>36627727172.591103</v>
       </c>
-      <c r="X3" s="37">
+      <c r="X3" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>386458518444.38501</v>
       </c>
-      <c r="Y3" s="37">
+      <c r="Y3" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>489524574955.99701</v>
       </c>
-      <c r="Z3" s="37">
+      <c r="Z3" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>45505377339.515099</v>
       </c>
-      <c r="AA3" s="37">
+      <c r="AA3" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>5307129727.7062101</v>
       </c>
-      <c r="AB3" s="37">
+      <c r="AB3" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>76300624341.913101</v>
       </c>
-      <c r="AC3" s="37">
+      <c r="AC3" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>19789460816.3265</v>
       </c>
-      <c r="AD3" s="37">
+      <c r="AD3" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>16535686064.599598</v>
       </c>
-      <c r="AE3" s="37">
+      <c r="AE3" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>378006428711.078</v>
       </c>
-      <c r="AF3" s="37">
+      <c r="AF3" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>203377579928.004</v>
       </c>
-      <c r="AG3" s="37">
+      <c r="AG3" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000</f>
         <v>143679079726.82401</v>
       </c>
@@ -60649,129 +60649,129 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="32">
         <v>43524</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>43525</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>65128417192.936897</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>2504867856.3440099</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>375599548340.026</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>38702122393.8358</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>3109442789199.2402</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>49191520905.329102</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>7200270453.3496599</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>39970152131.913002</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>5239157488.5158701</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>28671309960.577099</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>119934012481.127</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>13953959146.070101</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>100779450122.161</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>175921832224.65399</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>1712352002.7400301</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>61944396078.961403</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>74421440346.085007</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>106993793845.713</v>
       </c>
-      <c r="V4" s="37">
+      <c r="V4" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>28934157860.817501</v>
       </c>
-      <c r="W4" s="37">
+      <c r="W4" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>37048927169.065598</v>
       </c>
-      <c r="X4" s="37">
+      <c r="X4" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>390960204287.59198</v>
       </c>
-      <c r="Y4" s="37">
+      <c r="Y4" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>484164772270.91101</v>
       </c>
-      <c r="Z4" s="37">
+      <c r="Z4" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>45498480274.562401</v>
       </c>
-      <c r="AA4" s="37">
+      <c r="AA4" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>5194036059.3016596</v>
       </c>
-      <c r="AB4" s="37">
+      <c r="AB4" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>79085642416.222702</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>19178494904.6581</v>
       </c>
-      <c r="AD4" s="37">
+      <c r="AD4" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>16653663680.649599</v>
       </c>
-      <c r="AE4" s="37">
+      <c r="AE4" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>379583834239.78101</v>
       </c>
-      <c r="AF4" s="37">
+      <c r="AF4" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>206046600171.95099</v>
       </c>
-      <c r="AG4" s="37">
+      <c r="AG4" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000</f>
         <v>143180723613.95099</v>
       </c>
@@ -60780,129 +60780,129 @@
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="32">
         <v>43555</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="32">
         <v>43556</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>63774752424.902397</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>3221802166.2263598</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>381359235678.625</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>38697807379.105499</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>3117892634165.3999</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>49967453452.232399</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>7420108035.2724705</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>40030399068.345001</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>8781956974.0201702</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>29497393020.7085</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>121269199866.062</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>12028518003.062599</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>101399059400.783</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>177071372963.78299</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>1970174501.2362399</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>61752302831.596603</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>75399249839.088898</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>107594320100.02699</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>32042289063.749001</v>
       </c>
-      <c r="W5" s="37">
+      <c r="W5" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>35950890158.194199</v>
       </c>
-      <c r="X5" s="37">
+      <c r="X5" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>397773846012.45801</v>
       </c>
-      <c r="Y5" s="37">
+      <c r="Y5" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>499108336565.29602</v>
       </c>
-      <c r="Z5" s="37">
+      <c r="Z5" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>44454497583.749702</v>
       </c>
-      <c r="AA5" s="37">
+      <c r="AA5" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>6802709106.41786</v>
       </c>
-      <c r="AB5" s="37">
+      <c r="AB5" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>75403893228.870407</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>19605960748.794701</v>
       </c>
-      <c r="AD5" s="37">
+      <c r="AD5" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>16350663562.160999</v>
       </c>
-      <c r="AE5" s="37">
+      <c r="AE5" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>390267677762.94501</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AF5" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>205792285034.935</v>
       </c>
-      <c r="AG5" s="37">
+      <c r="AG5" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000</f>
         <v>142695908814.039</v>
       </c>
@@ -60911,129 +60911,129 @@
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="32">
         <v>43585</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="32">
         <v>43586</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>69032569005.404495</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>2722395918.1071601</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>381019721508.94397</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>37889233273.111198</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>3114006705314.1099</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>50234901423.452003</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>7342350854.0552797</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>40238555374.390602</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>8137356890.5163002</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>28894781612.635899</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>121039179247.117</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>11941174334.150499</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>101797577504.01801</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>179699025213.99899</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>2182198471.3962598</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>63551948908.218597</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>75752984570.998596</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>111689749906.22099</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>35334396852.904602</v>
       </c>
-      <c r="W6" s="37">
+      <c r="W6" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>37771920901.308701</v>
       </c>
-      <c r="X6" s="37">
+      <c r="X6" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>401052790169.42297</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Y6" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>504253508728.24298</v>
       </c>
-      <c r="Z6" s="37">
+      <c r="Z6" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>44369408373.5896</v>
       </c>
-      <c r="AA6" s="37">
+      <c r="AA6" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>6393058134.4304895</v>
       </c>
-      <c r="AB6" s="37">
+      <c r="AB6" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>72186960123.105698</v>
       </c>
-      <c r="AC6" s="37">
+      <c r="AC6" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>19520610425.816101</v>
       </c>
-      <c r="AD6" s="37">
+      <c r="AD6" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>15778260079.722799</v>
       </c>
-      <c r="AE6" s="37">
+      <c r="AE6" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>396238176683.98901</v>
       </c>
-      <c r="AF6" s="37">
+      <c r="AF6" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>204151889478.20599</v>
       </c>
-      <c r="AG6" s="37">
+      <c r="AG6" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000</f>
         <v>143182440494.16101</v>
       </c>
@@ -61042,129 +61042,129 @@
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="32">
         <v>43616</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="32">
         <v>43617</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>62492178733.021599</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>4131435581.1486602</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>383343260552.59998</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>38247487656.633698</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>3119969247138</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>50679291159.817596</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>7046532752.4211998</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>40276482555.208099</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>7717159294.5878401</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>28458503095.5103</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>117113609356.101</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>12595767530.8501</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>100664716455.769</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>180409837736.89499</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>2017828619.7056999</v>
       </c>
-      <c r="S7" s="37">
+      <c r="S7" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>65358745378.136002</v>
       </c>
-      <c r="T7" s="37">
+      <c r="T7" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>77025064586.106796</v>
       </c>
-      <c r="U7" s="37">
+      <c r="U7" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>113053662905.877</v>
       </c>
-      <c r="V7" s="37">
+      <c r="V7" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>35948791851.287804</v>
       </c>
-      <c r="W7" s="37">
+      <c r="W7" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>36607615271.087799</v>
       </c>
-      <c r="X7" s="37">
+      <c r="X7" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>405341003099.64301</v>
       </c>
-      <c r="Y7" s="37">
+      <c r="Y7" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>516654460201.85199</v>
       </c>
-      <c r="Z7" s="37">
+      <c r="Z7" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>43099831652.178703</v>
       </c>
-      <c r="AA7" s="37">
+      <c r="AA7" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>5898005073.4361696</v>
       </c>
-      <c r="AB7" s="37">
+      <c r="AB7" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>75033443524.581696</v>
       </c>
-      <c r="AC7" s="37">
+      <c r="AC7" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>18398940998.2229</v>
       </c>
-      <c r="AD7" s="37">
+      <c r="AD7" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>15546863837.068701</v>
       </c>
-      <c r="AE7" s="37">
+      <c r="AE7" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>399309608326.19299</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AF7" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>203497815641.48801</v>
       </c>
-      <c r="AG7" s="37">
+      <c r="AG7" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000</f>
         <v>142671659721.07599</v>
       </c>
@@ -61173,129 +61173,129 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="32">
         <v>43646</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <v>43647</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>62018582102.984802</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>3666883402.9597602</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>385035630518.54303</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>39503159272.1791</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>3138278571356.0801</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>51066898037.7164</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>8776348948.5020809</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>40289051663.735603</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>7350500958.30229</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>29391291919.3955</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>120281951799.33701</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>11168552684.888901</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>100979147925.16299</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>180762344956.58499</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>2146611386.7916002</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>65189807625.401001</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>76915677656.432007</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>107421677225.70799</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>36164607097.551102</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>37082653391.9972</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>418067101636.974</v>
       </c>
-      <c r="Y8" s="37">
+      <c r="Y8" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>513284060140.164</v>
       </c>
-      <c r="Z8" s="37">
+      <c r="Z8" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>44109858988.065002</v>
       </c>
-      <c r="AA8" s="37">
+      <c r="AA8" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>7964702556.6262302</v>
       </c>
-      <c r="AB8" s="37">
+      <c r="AB8" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>73542444597.957504</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AC8" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>19532677313.694302</v>
       </c>
-      <c r="AD8" s="37">
+      <c r="AD8" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>15613102819.077101</v>
       </c>
-      <c r="AE8" s="37">
+      <c r="AE8" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>405936770212.70203</v>
       </c>
-      <c r="AF8" s="37">
+      <c r="AF8" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>208836873649.23599</v>
       </c>
-      <c r="AG8" s="37">
+      <c r="AG8" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000</f>
         <v>146296761324.909</v>
       </c>
@@ -61304,129 +61304,129 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <v>43677</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <v>43678</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>64930707861.026497</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>3208590096.1691899</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>382636988265.36798</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>39068704223.988503</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>3123085567179.5098</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>50981983929.897697</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>8278624264.5492001</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>40604528586.1259</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>7037906814.0896797</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>28748966874.4464</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>122299287090.662</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>10200661289.3195</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>102144333435.78799</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>182438292894.65601</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>3119315023.8222299</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>65277662128.726097</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>77159878687.090393</v>
       </c>
-      <c r="U9" s="37">
+      <c r="U9" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>106005507999.323</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>36963347924.281898</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>39538602934.499298</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>417846575809.98297</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>503042631382.50201</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>43599713352.002296</v>
       </c>
-      <c r="AA9" s="37">
+      <c r="AA9" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>7437157812.7900896</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>75787257743.643097</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AC9" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>20714550372.243</v>
       </c>
-      <c r="AD9" s="37">
+      <c r="AD9" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>15323929230.6709</v>
       </c>
-      <c r="AE9" s="37">
+      <c r="AE9" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>403714736546.052</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>211372999582.698</v>
       </c>
-      <c r="AG9" s="37">
+      <c r="AG9" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000</f>
         <v>144645016754.77701</v>
       </c>
@@ -61435,129 +61435,129 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="32">
         <v>43708</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <v>43709</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>51158103467.713203</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>3054034083.5480499</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>383171298141.58002</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>39490298959.422203</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>3126444122668.8599</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>51549300484.118401</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>7960247786.5775003</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>40393040447.830002</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>7124264861.7966099</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>30204110442.753502</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>122549482205.51601</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>9593301244.9106197</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>101711181952.326</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>183455995367.31201</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>2969432663.4910698</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>66687419198.481697</v>
       </c>
-      <c r="T10" s="37">
+      <c r="T10" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>78015128345.590607</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>105380020384.95799</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>36850458374.7976</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>39333999971.264801</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>419597747572.08801</v>
       </c>
-      <c r="Y10" s="37">
+      <c r="Y10" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>507488550870.573</v>
       </c>
-      <c r="Z10" s="37">
+      <c r="Z10" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>43796874108.698097</v>
       </c>
-      <c r="AA10" s="37">
+      <c r="AA10" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>7567404324.8936396</v>
       </c>
-      <c r="AB10" s="37">
+      <c r="AB10" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>75788666248.837601</v>
       </c>
-      <c r="AC10" s="37">
+      <c r="AC10" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>20804218386.413502</v>
       </c>
-      <c r="AD10" s="37">
+      <c r="AD10" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>14672023232.025801</v>
       </c>
-      <c r="AE10" s="37">
+      <c r="AE10" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>401408385719.79401</v>
       </c>
-      <c r="AF10" s="37">
+      <c r="AF10" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>212650389069.98099</v>
       </c>
-      <c r="AG10" s="37">
+      <c r="AG10" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000</f>
         <v>144279346792.57999</v>
       </c>
@@ -61566,129 +61566,129 @@
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <v>43738</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="32">
         <v>43739</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>45763519076.547302</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>3916814729.02247</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>373250639826.25</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>38918956277.210503</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>3111631046532.3599</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>51457742174.963997</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>7651620757.7217197</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>40491416959.936501</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>6811542865.8377895</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>29509590940.013199</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>120568337001.92101</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>10741865547.5091</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>101143377030.63499</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>177177611563.59601</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>2327701710.6301098</v>
       </c>
-      <c r="S11" s="37">
+      <c r="S11" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>66241707362.398094</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>77565877791.873199</v>
       </c>
-      <c r="U11" s="37">
+      <c r="U11" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>109925796616.752</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>37082527646.221603</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>38699616140.367302</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>423060784594.64099</v>
       </c>
-      <c r="Y11" s="37">
+      <c r="Y11" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>500154964660.91199</v>
       </c>
-      <c r="Z11" s="37">
+      <c r="Z11" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>48880742652.802803</v>
       </c>
-      <c r="AA11" s="37">
+      <c r="AA11" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>6704147400.2442904</v>
       </c>
-      <c r="AB11" s="37">
+      <c r="AB11" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>75223679041.700607</v>
       </c>
-      <c r="AC11" s="37">
+      <c r="AC11" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>20258621642.429401</v>
       </c>
-      <c r="AD11" s="37">
+      <c r="AD11" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>14279356974.449301</v>
       </c>
-      <c r="AE11" s="37">
+      <c r="AE11" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>407452453119.28497</v>
       </c>
-      <c r="AF11" s="37">
+      <c r="AF11" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>213250711132.34799</v>
       </c>
-      <c r="AG11" s="37">
+      <c r="AG11" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000</f>
         <v>143408656067.535</v>
       </c>
@@ -61697,129 +61697,129 @@
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="32">
         <v>43769</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="32">
         <v>43770</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>40264524747.349297</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>3889472309.8441601</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>366565212220.41101</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>39754654203.337799</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>3124582849725.0898</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>51647626733.134903</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>7553942787.07481</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>40548220489.186996</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>6896634970.3067102</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>29709446858.990501</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>122915409932.134</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>11226616965.5763</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>101391661431.75</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>177880799523.44501</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>2519069084.7635298</v>
       </c>
-      <c r="S12" s="37">
+      <c r="S12" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>65945108530.425201</v>
       </c>
-      <c r="T12" s="37">
+      <c r="T12" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>77817387925.650208</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U12" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>110813512328.245</v>
       </c>
-      <c r="V12" s="37">
+      <c r="V12" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>37206059334.107201</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>38972555060.380898</v>
       </c>
-      <c r="X12" s="37">
+      <c r="X12" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>432991599711.70697</v>
       </c>
-      <c r="Y12" s="37">
+      <c r="Y12" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>488832654911.41101</v>
       </c>
-      <c r="Z12" s="37">
+      <c r="Z12" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>48455814847.205002</v>
       </c>
-      <c r="AA12" s="37">
+      <c r="AA12" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>6825971125.9457102</v>
       </c>
-      <c r="AB12" s="37">
+      <c r="AB12" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>77965248103.566101</v>
       </c>
-      <c r="AC12" s="37">
+      <c r="AC12" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>20222374438.795101</v>
       </c>
-      <c r="AD12" s="37">
+      <c r="AD12" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>14756334433.241501</v>
       </c>
-      <c r="AE12" s="37">
+      <c r="AE12" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>418505121881.737</v>
       </c>
-      <c r="AF12" s="37">
+      <c r="AF12" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>215296963491.67801</v>
       </c>
-      <c r="AG12" s="37">
+      <c r="AG12" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000</f>
         <v>146874092452.39499</v>
       </c>
@@ -61828,129 +61828,129 @@
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="32">
         <v>43799</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="32">
         <v>43800</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>40855223762.105499</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>3769288877.44805</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>363210433601</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>38762433808.511299</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>3114954950009.9502</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>51783431366.653603</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>7207841304.3626604</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>40778622886.934799</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>6608923498.4302998</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>30785224235.809399</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>122953919050.63901</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>10751620953.4799</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>101329096363.27901</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>179654689981.01001</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>3776910969.7069602</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>64451481610.686699</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>78211704100.360199</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>109114261882.77901</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>37558424060.672203</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>37209410928.517097</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>436125741543.27698</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>499715629392.87701</v>
       </c>
-      <c r="Z13" s="37">
+      <c r="Z13" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>49026268267.468498</v>
       </c>
-      <c r="AA13" s="37">
+      <c r="AA13" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>6596825162.7675896</v>
       </c>
-      <c r="AB13" s="37">
+      <c r="AB13" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>78269313978.467697</v>
       </c>
-      <c r="AC13" s="37">
+      <c r="AC13" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>20762397628.177399</v>
       </c>
-      <c r="AD13" s="37">
+      <c r="AD13" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>14433057752.6859</v>
       </c>
-      <c r="AE13" s="37">
+      <c r="AE13" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>424853307690.30103</v>
       </c>
-      <c r="AF13" s="37">
+      <c r="AF13" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>213782724246.793</v>
       </c>
-      <c r="AG13" s="37">
+      <c r="AG13" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000</f>
         <v>146206733628.50201</v>
       </c>
@@ -61959,129 +61959,129 @@
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="32">
         <v>43830</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="32">
         <v>43831</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>42192526746.957298</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>3674200742.4390602</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>353587904337.49902</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>40643492538.328201</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>3127493858036.3599</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>51973465671.493202</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>8843077478.3598194</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>40685367785.5569</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>7135247340.92838</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>30288204374.707001</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>125339390220.657</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>10082162364.2103</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>101725971168.985</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>177176653572.28</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>3423477098.41293</v>
       </c>
-      <c r="S14" s="37">
+      <c r="S14" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>66013558433.369194</v>
       </c>
-      <c r="T14" s="37">
+      <c r="T14" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>79823656328.117203</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>117196226086.771</v>
       </c>
-      <c r="V14" s="37">
+      <c r="V14" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>37651273314.407501</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>36931436733.501404</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>443970001638.92499</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>499143226682.302</v>
       </c>
-      <c r="Z14" s="37">
+      <c r="Z14" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>48919726656.866997</v>
       </c>
-      <c r="AA14" s="37">
+      <c r="AA14" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>6689823666.9544201</v>
       </c>
-      <c r="AB14" s="37">
+      <c r="AB14" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>78532272033.222107</v>
       </c>
-      <c r="AC14" s="37">
+      <c r="AC14" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>24083372926.888599</v>
       </c>
-      <c r="AD14" s="37">
+      <c r="AD14" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>14499003257.904699</v>
       </c>
-      <c r="AE14" s="37">
+      <c r="AE14" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>432378384523.96899</v>
       </c>
-      <c r="AF14" s="37">
+      <c r="AF14" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>216816656654.64099</v>
       </c>
-      <c r="AG14" s="37">
+      <c r="AG14" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000</f>
         <v>149464301402.53</v>
       </c>
@@ -62090,129 +62090,129 @@
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="32">
         <v>43861</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="32">
         <v>43862</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>41831385649.252998</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>3586310054.22435</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>355954628346.896</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>37423685334.604202</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>3134967867876</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>52240124635.039001</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>10468443354.2167</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>40590196152.7976</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>7074301305.0879002</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>28007810740.7724</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>127735559801.69099</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>9693900919.6838608</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>102260382466.12</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>183040358882.858</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>2698902679.9003601</v>
       </c>
-      <c r="S15" s="37">
+      <c r="S15" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>65826908863.712105</v>
       </c>
-      <c r="T15" s="37">
+      <c r="T15" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>78852680088.144699</v>
       </c>
-      <c r="U15" s="37">
+      <c r="U15" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>113828215180.42599</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>37847927752.227898</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>39168821360.636398</v>
       </c>
-      <c r="X15" s="37">
+      <c r="X15" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>446468662145.95099</v>
       </c>
-      <c r="Y15" s="37">
+      <c r="Y15" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>501412212146.37903</v>
       </c>
-      <c r="Z15" s="37">
+      <c r="Z15" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>48252589029.552101</v>
       </c>
-      <c r="AA15" s="37">
+      <c r="AA15" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>6587110874.0144396</v>
       </c>
-      <c r="AB15" s="37">
+      <c r="AB15" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>74850208662.783798</v>
       </c>
-      <c r="AC15" s="37">
+      <c r="AC15" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>25019921917.570202</v>
       </c>
-      <c r="AD15" s="37">
+      <c r="AD15" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>14850029673.184401</v>
       </c>
-      <c r="AE15" s="37">
+      <c r="AE15" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>442647713931.224</v>
       </c>
-      <c r="AF15" s="37">
+      <c r="AF15" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>222436887087.224</v>
       </c>
-      <c r="AG15" s="37">
+      <c r="AG15" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000</f>
         <v>147606332883.87201</v>
       </c>
@@ -62221,129 +62221,129 @@
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="32">
         <v>43890</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="32">
         <v>43891</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>41766085473.081596</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="33">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>3712365787.7209401</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>359034022871.479</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="33">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>36134957443.840698</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>3125925099762.0098</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>52452063014.516998</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>9922251474.5979004</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>40484765053.290199</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>7818441913.8571701</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>25822747997.412701</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>126302309068.569</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>9589332655.3889599</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>101493418534.386</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>182192764469.21301</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>2834087689.05481</v>
       </c>
-      <c r="S16" s="37">
+      <c r="S16" s="33">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>65679379871.543297</v>
       </c>
-      <c r="T16" s="37">
+      <c r="T16" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>80171100749.990204</v>
       </c>
-      <c r="U16" s="37">
+      <c r="U16" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>116210238294.619</v>
       </c>
-      <c r="V16" s="37">
+      <c r="V16" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>38152066540.180603</v>
       </c>
-      <c r="W16" s="37">
+      <c r="W16" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>39547246441.449303</v>
       </c>
-      <c r="X16" s="37">
+      <c r="X16" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>450623091162.24902</v>
       </c>
-      <c r="Y16" s="37">
+      <c r="Y16" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>496895310115.58099</v>
       </c>
-      <c r="Z16" s="37">
+      <c r="Z16" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>48187439268.700302</v>
       </c>
-      <c r="AA16" s="37">
+      <c r="AA16" s="33">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>7611864954.5381098</v>
       </c>
-      <c r="AB16" s="37">
+      <c r="AB16" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>77413173962.683701</v>
       </c>
-      <c r="AC16" s="37">
+      <c r="AC16" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>25702406149.0312</v>
       </c>
-      <c r="AD16" s="37">
+      <c r="AD16" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>15099421195.7693</v>
       </c>
-      <c r="AE16" s="37">
+      <c r="AE16" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>451702905467.53998</v>
       </c>
-      <c r="AF16" s="37">
+      <c r="AF16" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>221613527275.42401</v>
       </c>
-      <c r="AG16" s="37">
+      <c r="AG16" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000</f>
         <v>146217372521.69</v>
       </c>
@@ -62352,129 +62352,129 @@
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="32">
         <v>43921</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="32">
         <v>43922</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>40534170815.769402</v>
       </c>
-      <c r="E17" s="37" t="e">
+      <c r="E17" s="33" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>339690550435.87201</v>
       </c>
-      <c r="G17" s="37" t="e">
+      <c r="G17" s="33" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>3079722207756.4199</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>52108343138.817703</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>9384178260.3373508</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>35152236020.9851</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>8626484876.3619499</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>26663179889.970001</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>116874655629.18401</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>10110273242.1698</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>99705267962.855804</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>183566795681.664</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>2742303086.8516698</v>
       </c>
-      <c r="S17" s="37" t="e">
+      <c r="S17" s="33" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T17" s="37">
+      <c r="T17" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>80845620863.159195</v>
       </c>
-      <c r="U17" s="37">
+      <c r="U17" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>109088861996.17599</v>
       </c>
-      <c r="V17" s="37">
+      <c r="V17" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>37796731841.924202</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>37437770010.114197</v>
       </c>
-      <c r="X17" s="37">
+      <c r="X17" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>443625776177.44598</v>
       </c>
-      <c r="Y17" s="37">
+      <c r="Y17" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>472942964609.97498</v>
       </c>
-      <c r="Z17" s="37">
+      <c r="Z17" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>45976722464.170601</v>
       </c>
-      <c r="AA17" s="37" t="e">
+      <c r="AA17" s="33" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB17" s="37">
+      <c r="AB17" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>60682509535.1278</v>
       </c>
-      <c r="AC17" s="37">
+      <c r="AC17" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>23610307559.222</v>
       </c>
-      <c r="AD17" s="37">
+      <c r="AD17" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>15334795555.6654</v>
       </c>
-      <c r="AE17" s="37">
+      <c r="AE17" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>447527444119.67102</v>
       </c>
-      <c r="AF17" s="37">
+      <c r="AF17" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>218688169651.935</v>
       </c>
-      <c r="AG17" s="37">
+      <c r="AG17" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000</f>
         <v>144497715918.88901</v>
       </c>
@@ -62483,129 +62483,129 @@
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="32">
         <v>43951</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="32">
         <v>43952</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>40251726298.271004</v>
       </c>
-      <c r="E18" s="37" t="e">
+      <c r="E18" s="33" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>335653348872.58801</v>
       </c>
-      <c r="G18" s="37" t="e">
+      <c r="G18" s="33" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>3111307019946.7402</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>52594108068.467697</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>8700578390.6216698</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>31896883565.7356</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>9221516855.1075306</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>29814647424.536999</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>123563205770.056</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>9744177265.3963203</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>100488790228.17</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>189571764174.86099</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>5167605649.2391195</v>
       </c>
-      <c r="S18" s="37" t="e">
+      <c r="S18" s="33" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T18" s="37">
+      <c r="T18" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>82923150889.744797</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>105631158724.186</v>
       </c>
-      <c r="V18" s="37">
+      <c r="V18" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>37383948286.372002</v>
       </c>
-      <c r="W18" s="37">
+      <c r="W18" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>36044745116.095001</v>
       </c>
-      <c r="X18" s="37">
+      <c r="X18" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>439919143973.552</v>
       </c>
-      <c r="Y18" s="37">
+      <c r="Y18" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>448199161634.09802</v>
       </c>
-      <c r="Z18" s="37">
+      <c r="Z18" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>46087090215.331299</v>
       </c>
-      <c r="AA18" s="37" t="e">
+      <c r="AA18" s="33" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB18" s="37">
+      <c r="AB18" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>51470052153.1213</v>
       </c>
-      <c r="AC18" s="37">
+      <c r="AC18" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>24308363073.202301</v>
       </c>
-      <c r="AD18" s="37">
+      <c r="AD18" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>15879713774.440701</v>
       </c>
-      <c r="AE18" s="37">
+      <c r="AE18" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>449107995966.12097</v>
       </c>
-      <c r="AF18" s="37">
+      <c r="AF18" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>227369138249.82999</v>
       </c>
-      <c r="AG18" s="37">
+      <c r="AG18" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000</f>
         <v>146454997386.58301</v>
       </c>
@@ -62614,129 +62614,129 @@
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="32">
         <v>43982</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="32">
         <v>43983</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>39141565499.489098</v>
       </c>
-      <c r="E19" s="37" t="e">
+      <c r="E19" s="33" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>341948931331.21399</v>
       </c>
-      <c r="G19" s="37" t="e">
+      <c r="G19" s="33" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>3121640261058.1299</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>55124456505.221199</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>8095296243.1995802</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="33">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>30763990072.758202</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="33">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>8732817607.3487206</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>30610526772.888401</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="33">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>126211125225.306</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>10887086444.1661</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>100960262842.5</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>190725093201.42801</v>
       </c>
-      <c r="R19" s="37">
+      <c r="R19" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>5681474041.3375502</v>
       </c>
-      <c r="S19" s="37" t="e">
+      <c r="S19" s="33" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T19" s="37">
+      <c r="T19" s="33">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>85272227230.903793</v>
       </c>
-      <c r="U19" s="37">
+      <c r="U19" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>120085104602.064</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>38267331229.704399</v>
       </c>
-      <c r="W19" s="37">
+      <c r="W19" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>39667249189.826401</v>
       </c>
-      <c r="X19" s="37">
+      <c r="X19" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>438567737783.888</v>
       </c>
-      <c r="Y19" s="37">
+      <c r="Y19" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>448926319514.185</v>
       </c>
-      <c r="Z19" s="37">
+      <c r="Z19" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>45808602837.6092</v>
       </c>
-      <c r="AA19" s="37" t="e">
+      <c r="AA19" s="33" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB19" s="37">
+      <c r="AB19" s="33">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>54360484938.341202</v>
       </c>
-      <c r="AC19" s="37">
+      <c r="AC19" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>23975972425.7155</v>
       </c>
-      <c r="AD19" s="37">
+      <c r="AD19" s="33">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>15756966001.7509</v>
       </c>
-      <c r="AE19" s="37">
+      <c r="AE19" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>460963536940.63098</v>
       </c>
-      <c r="AF19" s="37">
+      <c r="AF19" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>228699643874.27899</v>
       </c>
-      <c r="AG19" s="37">
+      <c r="AG19" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000</f>
         <v>150076039818.133</v>
       </c>
@@ -62745,138 +62745,138 @@
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="32">
         <v>44012</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="32">
         <v>44013</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="33">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>39706590035.361603</v>
       </c>
-      <c r="E20" s="37" t="e">
+      <c r="E20" s="33" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="33">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>344919675086.86798</v>
       </c>
-      <c r="G20" s="37" t="e">
+      <c r="G20" s="33" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="33">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>3132890944287.0801</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="33">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>55852656834.799599</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="33">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>7228757721.0952702</v>
       </c>
-      <c r="K20" s="37" t="e">
+      <c r="K20" s="33" t="e">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="37" t="e">
+      <c r="L20" s="33" t="e">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="33">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>32077637644.534</v>
       </c>
-      <c r="N20" s="37" t="e">
+      <c r="N20" s="33" t="e">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="33">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>11323590768.368</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="33">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>101200309724.537</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="33">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>190232566621.89499</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="33">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>5512631788.3492298</v>
       </c>
-      <c r="S20" s="37" t="e">
+      <c r="S20" s="33" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T20" s="37" t="e">
+      <c r="T20" s="33" t="e">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="33">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>116065608032.035</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="33">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>38096701373.2239</v>
       </c>
-      <c r="W20" s="37">
+      <c r="W20" s="33">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>39204042220.664803</v>
       </c>
-      <c r="X20" s="37">
+      <c r="X20" s="33">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>438081101259.44897</v>
       </c>
-      <c r="Y20" s="37">
+      <c r="Y20" s="33">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>446997360288.04401</v>
       </c>
-      <c r="Z20" s="37">
+      <c r="Z20" s="33">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>45186776237.6101</v>
       </c>
-      <c r="AA20" s="37" t="e">
+      <c r="AA20" s="33" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB20" s="37" t="e">
+      <c r="AB20" s="33" t="e">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC20" s="37">
+      <c r="AC20" s="33">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>27085228964.1012</v>
       </c>
-      <c r="AD20" s="37" t="e">
+      <c r="AD20" s="33" t="e">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AE20" s="37">
+      <c r="AE20" s="33">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>472094307418.37</v>
       </c>
-      <c r="AF20" s="37">
+      <c r="AF20" s="33">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>232767124458.492</v>
       </c>
-      <c r="AG20" s="37">
+      <c r="AG20" s="33">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000</f>
         <v>150367795309.306</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="D21" s="37"/>
+      <c r="D21" s="33"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="B25" s="35"/>
+      <c r="B25" s="31"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -62893,46 +62893,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9EDD45-34E4-334F-9B56-789DA2C05B25}">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.83203125" style="38"/>
+    <col min="4" max="4" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>1278</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>1279</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -63030,129 +63030,129 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>43465</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="32">
         <v>43466</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!E$11</f>
         <v>0.12303794235304372</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!F$11</f>
         <v>5.6889472678033855E-2</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!G$11</f>
         <v>0.19726191840258711</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!H$11</f>
         <v>0.13360478701182416</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!I$11</f>
         <v>0.22252047167758779</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!J$11</f>
         <v>0.14197537006964586</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!K$11</f>
         <v>8.9931371724328898E-2</v>
       </c>
-      <c r="K2" s="39">
+      <c r="K2" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!L$11</f>
         <v>0.15388687675696239</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!M$11</f>
         <v>9.0528188183974775E-2</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!N$11</f>
         <v>0.1904466409754702</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!O$11</f>
         <v>0.11266561548468969</v>
       </c>
-      <c r="O2" s="39">
+      <c r="O2" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!P$11</f>
         <v>9.2205077302871377E-2</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!Q$11</f>
         <v>0.27845927850054963</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!R$11</f>
         <v>0.1404480834948228</v>
       </c>
-      <c r="R2" s="39">
+      <c r="R2" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!S$11</f>
         <v>3.2571201385995778E-2</v>
       </c>
-      <c r="S2" s="39">
+      <c r="S2" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!T$11</f>
         <v>0.2652811910299519</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!U$11</f>
         <v>0.20481917786326753</v>
       </c>
-      <c r="U2" s="39">
+      <c r="U2" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!V$11</f>
         <v>0.1901778822169814</v>
       </c>
-      <c r="V2" s="39">
+      <c r="V2" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!W$11</f>
         <v>0.15191305693408036</v>
       </c>
-      <c r="W2" s="39">
+      <c r="W2" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!X$11</f>
         <v>0.15667143208251125</v>
       </c>
-      <c r="X2" s="39">
+      <c r="X2" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!Y$11</f>
         <v>0.22854510453711765</v>
       </c>
-      <c r="Y2" s="39">
+      <c r="Y2" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!Z$11</f>
         <v>0.63082305472859934</v>
       </c>
-      <c r="Z2" s="39">
+      <c r="Z2" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AA$11</f>
         <v>0.1262005699815785</v>
       </c>
-      <c r="AA2" s="39">
+      <c r="AA2" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AB$11</f>
         <v>6.8985476676773891E-2</v>
       </c>
-      <c r="AB2" s="39">
+      <c r="AB2" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AC$11</f>
         <v>9.4466583479173014E-2</v>
       </c>
-      <c r="AC2" s="39">
+      <c r="AC2" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AD$11</f>
         <v>0.15139746863070064</v>
       </c>
-      <c r="AD2" s="39">
+      <c r="AD2" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AE$11</f>
         <v>0.26095794090554114</v>
       </c>
-      <c r="AE2" s="39">
+      <c r="AE2" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AF$11</f>
         <v>0.13800309942317843</v>
       </c>
-      <c r="AF2" s="39">
+      <c r="AF2" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AG$11</f>
         <v>0.39346675620862037</v>
       </c>
-      <c r="AG2" s="39">
+      <c r="AG2" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A11,FALSE)*1000000/Source!AH$11</f>
         <v>0.58023781896790239</v>
       </c>
@@ -63161,129 +63161,129 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="32">
         <v>43496</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="32">
         <v>43497</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!$E$11</f>
         <v>0.12356170226326685</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!F$11</f>
         <v>5.5436720034216583E-2</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!G$11</f>
         <v>0.19841981828636671</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!H$11</f>
         <v>0.13041110919942178</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!I$11</f>
         <v>0.22362260093741151</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!J$11</f>
         <v>0.14368853400373705</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!K$11</f>
         <v>8.3171022857653862E-2</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!L$11</f>
         <v>0.15370657116846714</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!M$11</f>
         <v>8.2903447347051976E-2</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!N$11</f>
         <v>0.18519392956137015</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!O$11</f>
         <v>0.11203960541550638</v>
       </c>
-      <c r="O3" s="39">
+      <c r="O3" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!P$11</f>
         <v>8.6772316989975035E-2</v>
       </c>
-      <c r="P3" s="39">
+      <c r="P3" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!Q$11</f>
         <v>0.28027947756876798</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!R$11</f>
         <v>0.14355910359118113</v>
       </c>
-      <c r="R3" s="39">
+      <c r="R3" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!S$11</f>
         <v>3.16328233307928E-2</v>
       </c>
-      <c r="S3" s="39">
+      <c r="S3" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!T$11</f>
         <v>0.27529425221835524</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!U$11</f>
         <v>0.21358422538121943</v>
       </c>
-      <c r="U3" s="39">
+      <c r="U3" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!V$11</f>
         <v>0.18428416441354278</v>
       </c>
-      <c r="V3" s="39">
+      <c r="V3" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!W$11</f>
         <v>0.15032797923962163</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!X$11</f>
         <v>0.15158791947167935</v>
       </c>
-      <c r="X3" s="39">
+      <c r="X3" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!Y$11</f>
         <v>0.23147007232871547</v>
       </c>
-      <c r="Y3" s="39">
+      <c r="Y3" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!Z$11</f>
         <v>0.62239159207668482</v>
       </c>
-      <c r="Z3" s="39">
+      <c r="Z3" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AA$11</f>
         <v>0.12355890287702082</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AB$11</f>
         <v>6.0017826817285805E-2</v>
       </c>
-      <c r="AB3" s="39">
+      <c r="AB3" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AC$11</f>
         <v>9.8918249255337584E-2</v>
       </c>
-      <c r="AC3" s="39">
+      <c r="AC3" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AD$11</f>
         <v>0.15117784464580902</v>
       </c>
-      <c r="AD3" s="39">
+      <c r="AD3" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AE$11</f>
         <v>0.27745889836679538</v>
       </c>
-      <c r="AE3" s="39">
+      <c r="AE3" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AF$11</f>
         <v>0.13932304916882798</v>
       </c>
-      <c r="AF3" s="39">
+      <c r="AF3" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AG$11</f>
         <v>0.40152402146345972</v>
       </c>
-      <c r="AG3" s="39">
+      <c r="AG3" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A12,FALSE)*1000000/Source!AH$11</f>
         <v>0.58647536143270518</v>
       </c>
@@ -63292,129 +63292,129 @@
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="32">
         <v>43524</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="32">
         <v>43525</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!$E$11</f>
         <v>0.12527790946696973</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!F$11</f>
         <v>6.6525937357254095E-2</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!G$11</f>
         <v>0.1992060607932154</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!H$11</f>
         <v>0.12976054252591732</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!I$11</f>
         <v>0.22378436251264353</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!J$11</f>
         <v>0.1474703337547523</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!K$11</f>
         <v>8.4159179914394089E-2</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!L$11</f>
         <v>0.15931042990279282</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!M$11</f>
         <v>7.991824398380451E-2</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!N$11</f>
         <v>0.18159856222595711</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!O$11</f>
         <v>0.11507328146684624</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!P$11</f>
         <v>7.7807290877927232E-2</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!Q$11</f>
         <v>0.28104998582357471</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!R$11</f>
         <v>0.14411559530348178</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!S$11</f>
         <v>2.6292021009946997E-2</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!T$11</f>
         <v>0.27897229981530497</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!U$11</f>
         <v>0.2145687733041762</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!V$11</f>
         <v>0.18223679791017205</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!W$11</f>
         <v>0.15120109827663414</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!X$11</f>
         <v>0.15333110246652337</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!Y$11</f>
         <v>0.23416636571596608</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!Z$11</f>
         <v>0.61557702893307265</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AA$11</f>
         <v>0.12354017555668087</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AB$11</f>
         <v>5.8738861245933638E-2</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AC$11</f>
         <v>0.1025288240629653</v>
       </c>
-      <c r="AC4" s="39">
+      <c r="AC4" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AD$11</f>
         <v>0.14651048606866734</v>
       </c>
-      <c r="AD4" s="39">
+      <c r="AD4" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AE$11</f>
         <v>0.27943849203187182</v>
       </c>
-      <c r="AE4" s="39">
+      <c r="AE4" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AF$11</f>
         <v>0.13990443861446264</v>
       </c>
-      <c r="AF4" s="39">
+      <c r="AF4" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AG$11</f>
         <v>0.40679341124622909</v>
       </c>
-      <c r="AG4" s="39">
+      <c r="AG4" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A13,FALSE)*1000000/Source!AH$11</f>
         <v>0.5844411503146002</v>
       </c>
@@ -63423,129 +63423,129 @@
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="32">
         <v>43555</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="32">
         <v>43556</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!$E$11</f>
         <v>0.1226740646390496</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!F$11</f>
         <v>8.5566752970622398E-2</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!G$11</f>
         <v>0.20226081586731942</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!H$11</f>
         <v>0.12974607513710815</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!I$11</f>
         <v>0.22439249178122211</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!J$11</f>
         <v>0.14979648731855902</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!K$11</f>
         <v>8.6728715424047073E-2</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!L$11</f>
         <v>0.15955055821933342</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!M$11</f>
         <v>0.13396019906701295</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!N$11</f>
         <v>0.18683081342778052</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!O$11</f>
         <v>0.11635435587250564</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!P$11</f>
         <v>6.7071029038970525E-2</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!Q$11</f>
         <v>0.2827779291568811</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!R$11</f>
         <v>0.14505730188901586</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!S$11</f>
         <v>3.0250713227699212E-2</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!T$11</f>
         <v>0.27810719016231811</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!U$11</f>
         <v>0.21738795259529645</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!V$11</f>
         <v>0.18325964211181786</v>
       </c>
-      <c r="V5" s="39">
+      <c r="V5" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!W$11</f>
         <v>0.16744324549003295</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!X$11</f>
         <v>0.14878675426832416</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!Y$11</f>
         <v>0.23824740952171586</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!Z$11</f>
         <v>0.63457658329317523</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AA$11</f>
         <v>0.12070549175795091</v>
       </c>
-      <c r="AA5" s="39">
+      <c r="AA5" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AB$11</f>
         <v>7.6931192185841699E-2</v>
       </c>
-      <c r="AB5" s="39">
+      <c r="AB5" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AC$11</f>
         <v>9.7755702126529259E-2</v>
       </c>
-      <c r="AC5" s="39">
+      <c r="AC5" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AD$11</f>
         <v>0.14977603057117131</v>
       </c>
-      <c r="AD5" s="39">
+      <c r="AD5" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AE$11</f>
         <v>0.27435433170417689</v>
       </c>
-      <c r="AE5" s="39">
+      <c r="AE5" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AF$11</f>
         <v>0.14384221729607219</v>
       </c>
-      <c r="AF5" s="39">
+      <c r="AF5" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AG$11</f>
         <v>0.40629132229143944</v>
       </c>
-      <c r="AG5" s="39">
+      <c r="AG5" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A14,FALSE)*1000000/Source!AH$11</f>
         <v>0.58246221270206189</v>
       </c>
@@ -63554,129 +63554,129 @@
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="32">
         <v>43585</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="32">
         <v>43586</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!$E$11</f>
         <v>0.13278774923259301</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!F$11</f>
         <v>7.2303191504074368E-2</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!G$11</f>
         <v>0.20208074834427647</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!H$11</f>
         <v>0.12703508648386211</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!I$11</f>
         <v>0.22411282427494864</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!J$11</f>
         <v>0.15059826455276348</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!K$11</f>
         <v>8.5819863368267787E-2</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!L$11</f>
         <v>0.16038021407087133</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!M$11</f>
         <v>0.12412745270304822</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!N$11</f>
         <v>0.1830139886842507</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!O$11</f>
         <v>0.11613365761619407</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!P$11</f>
         <v>6.6584000649231895E-2</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!Q$11</f>
         <v>0.28388930163538612</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!R$11</f>
         <v>0.14720988104023131</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!S$11</f>
         <v>3.3506199640037031E-2</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!T$11</f>
         <v>0.2862120622190068</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!U$11</f>
         <v>0.21840782572793113</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!V$11</f>
         <v>0.19023516832806647</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!W$11</f>
         <v>0.18464679832056019</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!X$11</f>
         <v>0.15632329237624318</v>
       </c>
-      <c r="X6" s="39">
+      <c r="X6" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!Y$11</f>
         <v>0.24021133942609374</v>
       </c>
-      <c r="Y6" s="39">
+      <c r="Y6" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!Z$11</f>
         <v>0.64111826078565459</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AA$11</f>
         <v>0.12047445248152401</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AB$11</f>
         <v>7.2298488190701712E-2</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AC$11</f>
         <v>9.3585180672237811E-2</v>
       </c>
-      <c r="AC6" s="39">
+      <c r="AC6" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AD$11</f>
         <v>0.14912401291452634</v>
       </c>
-      <c r="AD6" s="39">
+      <c r="AD6" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AE$11</f>
         <v>0.26474974444736954</v>
       </c>
-      <c r="AE6" s="39">
+      <c r="AE6" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AF$11</f>
         <v>0.1460427833488121</v>
       </c>
-      <c r="AF6" s="39">
+      <c r="AF6" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AG$11</f>
         <v>0.40305272430555633</v>
       </c>
-      <c r="AG6" s="39">
+      <c r="AG6" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A15,FALSE)*1000000/Source!AH$11</f>
         <v>0.58444815834905883</v>
       </c>
@@ -63685,129 +63685,129 @@
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="32">
         <v>43616</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="32">
         <v>43617</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!$E$11</f>
         <v>0.12020696720629355</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!F$11</f>
         <v>0.1097253988752051</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!G$11</f>
         <v>0.20331307959182876</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!H$11</f>
         <v>0.12823624239709883</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!I$11</f>
         <v>0.22454194412421843</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!J$11</f>
         <v>0.15193049217111959</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!K$11</f>
         <v>8.2362242019367593E-2</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!L$11</f>
         <v>0.16053138175872739</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!M$11</f>
         <v>0.11771774769486157</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!N$11</f>
         <v>0.18025068447704778</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!O$11</f>
         <v>0.11236718470628666</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!P$11</f>
         <v>7.0234013002655055E-2</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!Q$11</f>
         <v>0.28073002083791676</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!R$11</f>
         <v>0.14779218039779776</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!S$11</f>
         <v>3.098241037992298E-2</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!T$11</f>
         <v>0.29434913673125995</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!U$11</f>
         <v>0.22207543343771502</v>
       </c>
-      <c r="U7" s="39">
+      <c r="U7" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!V$11</f>
         <v>0.19255824828206633</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!W$11</f>
         <v>0.18785743949346304</v>
       </c>
-      <c r="W7" s="39">
+      <c r="W7" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!X$11</f>
         <v>0.15150468413220172</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!Y$11</f>
         <v>0.24277977280185284</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!Z$11</f>
         <v>0.65688508501836862</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AA$11</f>
         <v>0.11702722237407212</v>
       </c>
-      <c r="AA7" s="39">
+      <c r="AA7" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AB$11</f>
         <v>6.6699980069633763E-2</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB7" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AC$11</f>
         <v>9.7275440837693808E-2</v>
       </c>
-      <c r="AC7" s="39">
+      <c r="AC7" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AD$11</f>
         <v>0.1405552313776014</v>
       </c>
-      <c r="AD7" s="39">
+      <c r="AD7" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AE$11</f>
         <v>0.2608670542268246</v>
       </c>
-      <c r="AE7" s="39">
+      <c r="AE7" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AF$11</f>
         <v>0.14717483081997443</v>
       </c>
-      <c r="AF7" s="39">
+      <c r="AF7" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AG$11</f>
         <v>0.40176140027000623</v>
       </c>
-      <c r="AG7" s="39">
+      <c r="AG7" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A16,FALSE)*1000000/Source!AH$11</f>
         <v>0.58236323172593829</v>
       </c>
@@ -63816,129 +63816,129 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="32">
         <v>43646</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <v>43647</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!$E$11</f>
         <v>0.11929597937181496</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!F$11</f>
         <v>9.73875148518627E-2</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!G$11</f>
         <v>0.20421065882431247</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!H$11</f>
         <v>0.1324462603493318</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!I$11</f>
         <v>0.22585965302769548</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!J$11</f>
         <v>0.15309249152786608</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!K$11</f>
         <v>0.10258091483284199</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!L$11</f>
         <v>0.16058147889311916</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!M$11</f>
         <v>0.11212473193952392</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!N$11</f>
         <v>0.18615878946112099</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!O$11</f>
         <v>0.11540711936878473</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!P$11</f>
         <v>6.2275861520158148E-2</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!Q$11</f>
         <v>0.28160689563638558</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!R$11</f>
         <v>0.14808095517448111</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!S$11</f>
         <v>3.29597837310351E-2</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!T$11</f>
         <v>0.29358830998357421</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!U$11</f>
         <v>0.22176005363309581</v>
       </c>
-      <c r="U8" s="39">
+      <c r="U8" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!V$11</f>
         <v>0.18296558875164565</v>
       </c>
-      <c r="V8" s="39">
+      <c r="V8" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!W$11</f>
         <v>0.18898522425280598</v>
       </c>
-      <c r="W8" s="39">
+      <c r="W8" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!X$11</f>
         <v>0.15347068218823937</v>
       </c>
-      <c r="X8" s="39">
+      <c r="X8" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!Y$11</f>
         <v>0.25040209397814817</v>
       </c>
-      <c r="Y8" s="39">
+      <c r="Y8" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!Z$11</f>
         <v>0.6525998892025755</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AA$11</f>
         <v>0.11976970857667618</v>
       </c>
-      <c r="AA8" s="39">
+      <c r="AA8" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AB$11</f>
         <v>9.0072065922796457E-2</v>
       </c>
-      <c r="AB8" s="39">
+      <c r="AB8" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AC$11</f>
         <v>9.5342468404829517E-2</v>
       </c>
-      <c r="AC8" s="39">
+      <c r="AC8" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AD$11</f>
         <v>0.14921619562318833</v>
       </c>
-      <c r="AD8" s="39">
+      <c r="AD8" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AE$11</f>
         <v>0.26197850463203848</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="AE8" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AF$11</f>
         <v>0.14961742526079438</v>
       </c>
-      <c r="AF8" s="39">
+      <c r="AF8" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AG$11</f>
         <v>0.41230218870330626</v>
       </c>
-      <c r="AG8" s="39">
+      <c r="AG8" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A17,FALSE)*1000000/Source!AH$11</f>
         <v>0.59716032520245865</v>
       </c>
@@ -63947,129 +63947,129 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <v>43677</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <v>43678</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!$E$11</f>
         <v>0.12489760524875924</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!F$11</f>
         <v>8.5215858075006701E-2</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!G$11</f>
         <v>0.20293849522182966</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!H$11</f>
         <v>0.13098961871653819</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!I$11</f>
         <v>0.22476622343763658</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!J$11</f>
         <v>0.15283792912381658</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!K$11</f>
         <v>9.6763341521392474E-2</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!L$11</f>
         <v>0.16183888626961698</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!M$11</f>
         <v>0.1073564127699147</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!N$11</f>
         <v>0.18209042618072444</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!O$11</f>
         <v>0.11734269533251039</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!P$11</f>
         <v>5.6878898080250068E-2</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!Q$11</f>
         <v>0.28485632169344421</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!R$11</f>
         <v>0.14945389582510091</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!S$11</f>
         <v>4.7894998231522289E-2</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!T$11</f>
         <v>0.29398397084061917</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!U$11</f>
         <v>0.22246412379546188</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!V$11</f>
         <v>0.18055350356577515</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!W$11</f>
         <v>0.19315920058973715</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!X$11</f>
         <v>0.16363490230817918</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!Y$11</f>
         <v>0.25027000961025941</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!Z$11</f>
         <v>0.63957872647505731</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AA$11</f>
         <v>0.11838453085077537</v>
       </c>
-      <c r="AA9" s="39">
+      <c r="AA9" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AB$11</f>
         <v>8.4106112441645828E-2</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AC$11</f>
         <v>9.8252706534488032E-2</v>
       </c>
-      <c r="AC9" s="39">
+      <c r="AC9" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AD$11</f>
         <v>0.15824489141710987</v>
       </c>
-      <c r="AD9" s="39">
+      <c r="AD9" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AE$11</f>
         <v>0.25712634518957506</v>
       </c>
-      <c r="AE9" s="39">
+      <c r="AE9" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AF$11</f>
         <v>0.1487984431422916</v>
       </c>
-      <c r="AF9" s="39">
+      <c r="AF9" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AG$11</f>
         <v>0.41730920808126287</v>
       </c>
-      <c r="AG9" s="39">
+      <c r="AG9" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A18,FALSE)*1000000/Source!AH$11</f>
         <v>0.59041816416130743</v>
       </c>
@@ -64078,129 +64078,129 @@
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="32">
         <v>43708</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <v>43709</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!$E$11</f>
         <v>9.8405281917784596E-2</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!F$11</f>
         <v>8.1111057261750219E-2</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!G$11</f>
         <v>0.20322187619540516</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!H$11</f>
         <v>0.13240314227060199</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!I$11</f>
         <v>0.22500793626212021</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!J$11</f>
         <v>0.15453867673348157</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!K$11</f>
         <v>9.3042050291607309E-2</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!L$11</f>
         <v>0.16099595061803212</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!M$11</f>
         <v>0.10867372066564709</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!N$11</f>
         <v>0.19130702563851915</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!O$11</f>
         <v>0.11758275044513122</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!P$11</f>
         <v>5.3492257833688814E-2</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!Q$11</f>
         <v>0.2836483649310399</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!R$11</f>
         <v>0.15028760018023377</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!S$11</f>
         <v>4.5593654722394752E-2</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!T$11</f>
         <v>0.30033294180208081</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!U$11</f>
         <v>0.22492994371563305</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!V$11</f>
         <v>0.17948814401661548</v>
       </c>
-      <c r="V10" s="39">
+      <c r="V10" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!W$11</f>
         <v>0.19256927417998684</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!X$11</f>
         <v>0.16278813020658758</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!Y$11</f>
         <v>0.25131887730262154</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!Z$11</f>
         <v>0.6452313597645587</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AA$11</f>
         <v>0.11891987344569507</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AB$11</f>
         <v>8.5579057895791524E-2</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AC$11</f>
         <v>9.8254532559754651E-2</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AD$11</f>
         <v>0.15892989325934212</v>
       </c>
-      <c r="AD10" s="39">
+      <c r="AD10" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AE$11</f>
         <v>0.24618775337571586</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AF$11</f>
         <v>0.14794838397620022</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AG$11</f>
         <v>0.41983113092099072</v>
       </c>
-      <c r="AG10" s="39">
+      <c r="AG10" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A19,FALSE)*1000000/Source!AH$11</f>
         <v>0.58892555700059668</v>
       </c>
@@ -64209,129 +64209,129 @@
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <v>43738</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="32">
         <v>43739</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!$E$11</f>
         <v>8.8028517302634363E-2</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!F$11</f>
         <v>0.10402535632487803</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!G$11</f>
         <v>0.19796027438516212</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!H$11</f>
         <v>0.13048754354302908</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!I$11</f>
         <v>0.22394184982001794</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!J$11</f>
         <v>0.1542641958034244</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!K$11</f>
         <v>8.9434713898314575E-2</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!L$11</f>
         <v>0.16138805331467185</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!M$11</f>
         <v>0.1039034512421908</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!N$11</f>
         <v>0.18690807270232804</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!O$11</f>
         <v>0.11568189784357372</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!P$11</f>
         <v>5.9896653593257319E-2</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!Q$11</f>
         <v>0.28206489166344045</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!R$11</f>
         <v>0.14514433280986661</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!S$11</f>
         <v>3.5740304670328828E-2</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!T$11</f>
         <v>0.29832563744788798</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!U$11</f>
         <v>0.22363468337440481</v>
       </c>
-      <c r="U11" s="39">
+      <c r="U11" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!V$11</f>
         <v>0.18723072117667849</v>
       </c>
-      <c r="V11" s="39">
+      <c r="V11" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!W$11</f>
         <v>0.1937819975253269</v>
       </c>
-      <c r="W11" s="39">
+      <c r="W11" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!X$11</f>
         <v>0.160162662221116</v>
       </c>
-      <c r="X11" s="39">
+      <c r="X11" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!Y$11</f>
         <v>0.25339306998263805</v>
       </c>
-      <c r="Y11" s="39">
+      <c r="Y11" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!Z$11</f>
         <v>0.63590728773595251</v>
       </c>
-      <c r="Z11" s="39">
+      <c r="Z11" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AA$11</f>
         <v>0.13272389522083389</v>
       </c>
-      <c r="AA11" s="39">
+      <c r="AA11" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AB$11</f>
         <v>7.5816567197298554E-2</v>
       </c>
-      <c r="AB11" s="39">
+      <c r="AB11" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AC$11</f>
         <v>9.7522067447395736E-2</v>
       </c>
-      <c r="AC11" s="39">
+      <c r="AC11" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AD$11</f>
         <v>0.15476191008047555</v>
       </c>
-      <c r="AD11" s="39">
+      <c r="AD11" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AE$11</f>
         <v>0.23959904899251941</v>
       </c>
-      <c r="AE11" s="39">
+      <c r="AE11" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AF$11</f>
         <v>0.15017606540042971</v>
       </c>
-      <c r="AF11" s="39">
+      <c r="AF11" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AG$11</f>
         <v>0.4210163339740518</v>
       </c>
-      <c r="AG11" s="39">
+      <c r="AG11" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A20,FALSE)*1000000/Source!AH$11</f>
         <v>0.58537153467084813</v>
       </c>
@@ -64340,129 +64340,129 @@
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="32">
         <v>43769</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="32">
         <v>43770</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!$E$11</f>
         <v>7.7450914722614062E-2</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!F$11</f>
         <v>0.10329917827087604</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!G$11</f>
         <v>0.19441453610096227</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!H$11</f>
         <v>0.13328947298706736</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!I$11</f>
         <v>0.22487398178621526</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!J$11</f>
         <v>0.15483344714294345</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!K$11</f>
         <v>8.8293020963499627E-2</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!L$11</f>
         <v>0.16161445712306935</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!M$11</f>
         <v>0.10520144840699239</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!N$11</f>
         <v>0.18817392164988325</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!O$11</f>
         <v>0.1179338477144589</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!P$11</f>
         <v>6.2599628010354194E-2</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!Q$11</f>
         <v>0.28275729797572929</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!R$11</f>
         <v>0.14572038610673352</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!S$11</f>
         <v>3.8678622850985132E-2</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!T$11</f>
         <v>0.29698987725785342</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!U$11</f>
         <v>0.22435982683611613</v>
       </c>
-      <c r="U12" s="39">
+      <c r="U12" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!V$11</f>
         <v>0.18874271979736781</v>
       </c>
-      <c r="V12" s="39">
+      <c r="V12" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!W$11</f>
         <v>0.19442753650973821</v>
       </c>
-      <c r="W12" s="39">
+      <c r="W12" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!X$11</f>
         <v>0.16129225027425267</v>
       </c>
-      <c r="X12" s="39">
+      <c r="X12" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!Y$11</f>
         <v>0.25934115078231423</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!Z$11</f>
         <v>0.62151187073035941</v>
       </c>
-      <c r="Z12" s="39">
+      <c r="Z12" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AA$11</f>
         <v>0.13157010600884964</v>
       </c>
-      <c r="AA12" s="39">
+      <c r="AA12" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AB$11</f>
         <v>7.7194260158752595E-2</v>
       </c>
-      <c r="AB12" s="39">
+      <c r="AB12" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AC$11</f>
         <v>0.101076313748148</v>
       </c>
-      <c r="AC12" s="39">
+      <c r="AC12" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AD$11</f>
         <v>0.15448500642096047</v>
       </c>
-      <c r="AD12" s="39">
+      <c r="AD12" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AE$11</f>
         <v>0.24760244478421872</v>
       </c>
-      <c r="AE12" s="39">
+      <c r="AE12" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AF$11</f>
         <v>0.15424978319059687</v>
       </c>
-      <c r="AF12" s="39">
+      <c r="AF12" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AG$11</f>
         <v>0.42505620639528002</v>
       </c>
-      <c r="AG12" s="39">
+      <c r="AG12" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A21,FALSE)*1000000/Source!AH$11</f>
         <v>0.59951689988474688</v>
       </c>
@@ -64471,129 +64471,129 @@
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="32">
         <v>43799</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="32">
         <v>43800</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!$E$11</f>
         <v>7.8587155105573667E-2</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!F$11</f>
         <v>0.1001072671787544</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!G$11</f>
         <v>0.19263526816371443</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!H$11</f>
         <v>0.12996275474077107</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!I$11</f>
         <v>0.22418106876412261</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!J$11</f>
         <v>0.1552405732952124</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!K$11</f>
         <v>8.4247670564382357E-2</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!L$11</f>
         <v>0.16253277999846641</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!M$11</f>
         <v>0.10081269016546986</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!N$11</f>
         <v>0.19498768862370278</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!O$11</f>
         <v>0.11797079612084582</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!P$11</f>
         <v>5.9951049747213103E-2</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!Q$11</f>
         <v>0.28258281883751701</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!R$11</f>
         <v>0.14717356150891261</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!S$11</f>
         <v>5.7991944652346604E-2</v>
       </c>
-      <c r="S13" s="39">
+      <c r="S13" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!T$11</f>
         <v>0.29026319069310991</v>
       </c>
-      <c r="T13" s="39">
+      <c r="T13" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!U$11</f>
         <v>0.225496702681411</v>
       </c>
-      <c r="U13" s="39">
+      <c r="U13" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!V$11</f>
         <v>0.18584847753434738</v>
       </c>
-      <c r="V13" s="39">
+      <c r="V13" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!W$11</f>
         <v>0.19626888727262745</v>
       </c>
-      <c r="W13" s="39">
+      <c r="W13" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!X$11</f>
         <v>0.15399528234013701</v>
       </c>
-      <c r="X13" s="39">
+      <c r="X13" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!Y$11</f>
         <v>0.26121835105561181</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!Z$11</f>
         <v>0.63534870785882924</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AA$11</f>
         <v>0.13311903501177422</v>
       </c>
-      <c r="AA13" s="39">
+      <c r="AA13" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AB$11</f>
         <v>7.4602870191006573E-2</v>
       </c>
-      <c r="AB13" s="39">
+      <c r="AB13" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AC$11</f>
         <v>0.1014705131962256</v>
       </c>
-      <c r="AC13" s="39">
+      <c r="AC13" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AD$11</f>
         <v>0.15861041148314478</v>
       </c>
-      <c r="AD13" s="39">
+      <c r="AD13" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AE$11</f>
         <v>0.24217805590163966</v>
       </c>
-      <c r="AE13" s="39">
+      <c r="AE13" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AF$11</f>
         <v>0.15658955451817774</v>
       </c>
-      <c r="AF13" s="39">
+      <c r="AF13" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AG$11</f>
         <v>0.42206667612709975</v>
       </c>
-      <c r="AG13" s="39">
+      <c r="AG13" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A22,FALSE)*1000000/Source!AH$11</f>
         <v>0.59679284633295571</v>
       </c>
@@ -64602,129 +64602,129 @@
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="32">
         <v>43830</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="32">
         <v>43831</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!$E$11</f>
         <v>8.1159527189634401E-2</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!F$11</f>
         <v>9.7581853593760315E-2</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!G$11</f>
         <v>0.18753178452556546</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!H$11</f>
         <v>0.13626957168533818</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!I$11</f>
         <v>0.22508348496198338</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!J$11</f>
         <v>0.15581027355744828</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!K$11</f>
         <v>0.10336086030657178</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!L$11</f>
         <v>0.16216108988725267</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!M$11</f>
         <v>0.10884124768668507</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!N$11</f>
         <v>0.19183966042764042</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!O$11</f>
         <v>0.1202595880131518</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!P$11</f>
         <v>5.6218147949181362E-2</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!Q$11</f>
         <v>0.28368960854893338</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!R$11</f>
         <v>0.14514354802103707</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!S$11</f>
         <v>5.2565203681553152E-2</v>
       </c>
-      <c r="S14" s="39">
+      <c r="S14" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!T$11</f>
         <v>0.29729814770772717</v>
       </c>
-      <c r="T14" s="39">
+      <c r="T14" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!U$11</f>
         <v>0.23014421569011281</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!V$11</f>
         <v>0.19961405425073137</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!W$11</f>
         <v>0.1967540891992387</v>
       </c>
-      <c r="W14" s="39">
+      <c r="W14" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!X$11</f>
         <v>0.15284485524181637</v>
       </c>
-      <c r="X14" s="39">
+      <c r="X14" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!Y$11</f>
         <v>0.26591668571521176</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!Z$11</f>
         <v>0.63462094330405527</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AA$11</f>
         <v>0.13282974690372373</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AB$11</f>
         <v>7.5654581455838268E-2</v>
       </c>
-      <c r="AB14" s="39">
+      <c r="AB14" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AC$11</f>
         <v>0.10181141932416678</v>
       </c>
-      <c r="AC14" s="39">
+      <c r="AC14" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AD$11</f>
         <v>0.18398037443670481</v>
       </c>
-      <c r="AD14" s="39">
+      <c r="AD14" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AE$11</f>
         <v>0.24328458194227498</v>
       </c>
-      <c r="AE14" s="39">
+      <c r="AE14" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AF$11</f>
         <v>0.15936309636843465</v>
       </c>
-      <c r="AF14" s="39">
+      <c r="AF14" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AG$11</f>
         <v>0.42805650421768221</v>
       </c>
-      <c r="AG14" s="39">
+      <c r="AG14" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A23,FALSE)*1000000/Source!AH$11</f>
         <v>0.61008972463491162</v>
       </c>
@@ -64733,129 +64733,129 @@
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="32">
         <v>43861</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="32">
         <v>43862</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!$E$11</f>
         <v>8.0464853440555359E-2</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!F$11</f>
         <v>9.5247594561432836E-2</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!G$11</f>
         <v>0.18878701970617298</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!H$11</f>
         <v>0.12547419655493894</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!I$11</f>
         <v>0.22562138407792365</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!J$11</f>
         <v>0.15660968544041234</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!K$11</f>
         <v>0.12235868268827407</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!L$11</f>
         <v>0.16178176099004465</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!M$11</f>
         <v>0.10791157527793964</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!N$11</f>
         <v>0.17739608579497954</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!O$11</f>
         <v>0.12255864472722622</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!P$11</f>
         <v>5.4053201726054365E-2</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!Q$11</f>
         <v>0.2851799549171829</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!R$11</f>
         <v>0.14994710975542713</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!S$11</f>
         <v>4.1439847560662817E-2</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!T$11</f>
         <v>0.29645755415927444</v>
       </c>
-      <c r="T15" s="39">
+      <c r="T15" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!U$11</f>
         <v>0.22734473774733793</v>
       </c>
-      <c r="U15" s="39">
+      <c r="U15" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!V$11</f>
         <v>0.1938775016822345</v>
       </c>
-      <c r="V15" s="39">
+      <c r="V15" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!W$11</f>
         <v>0.19778174540829271</v>
       </c>
-      <c r="W15" s="39">
+      <c r="W15" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!X$11</f>
         <v>0.16210452016962304</v>
       </c>
-      <c r="X15" s="39">
+      <c r="X15" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!Y$11</f>
         <v>0.26741326322788844</v>
       </c>
-      <c r="Y15" s="39">
+      <c r="Y15" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!Z$11</f>
         <v>0.63750577799394326</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AA$11</f>
         <v>0.13101829520024719</v>
       </c>
-      <c r="AA15" s="39">
+      <c r="AA15" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AB$11</f>
         <v>7.449301222069997E-2</v>
       </c>
-      <c r="AB15" s="39">
+      <c r="AB15" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AC$11</f>
         <v>9.7037890072049091E-2</v>
       </c>
-      <c r="AC15" s="39">
+      <c r="AC15" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AD$11</f>
         <v>0.19113496339345107</v>
       </c>
-      <c r="AD15" s="39">
+      <c r="AD15" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AE$11</f>
         <v>0.24917459473646195</v>
       </c>
-      <c r="AE15" s="39">
+      <c r="AE15" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AF$11</f>
         <v>0.16314809624480303</v>
       </c>
-      <c r="AF15" s="39">
+      <c r="AF15" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AG$11</f>
         <v>0.43915240537670336</v>
       </c>
-      <c r="AG15" s="39">
+      <c r="AG15" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A24,FALSE)*1000000/Source!AH$11</f>
         <v>0.60250578993417248</v>
       </c>
@@ -64864,129 +64864,129 @@
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="32">
         <v>43890</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="32">
         <v>43891</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!$E$11</f>
         <v>8.0339245143729365E-2</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!F$11</f>
         <v>9.8595466110376201E-2</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!G$11</f>
         <v>0.19042023267349809</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="35">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!H$11</f>
         <v>0.12115334746630115</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!I$11</f>
         <v>0.22497058255658095</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!J$11</f>
         <v>0.15724505151533433</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!K$11</f>
         <v>0.11597460851183322</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!L$11</f>
         <v>0.16136154057826799</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!M$11</f>
         <v>0.11926271539163871</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!N$11</f>
         <v>0.16355631868586484</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!O$11</f>
         <v>0.12118348132184056</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!P$11</f>
         <v>5.3470128974341113E-2</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!Q$11</f>
         <v>0.28304107440255671</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!R$11</f>
         <v>0.14925275833835933</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!S$11</f>
         <v>4.3515523061512677E-2</v>
       </c>
-      <c r="S16" s="39">
+      <c r="S16" s="35">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!T$11</f>
         <v>0.29579314373896293</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T16" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!U$11</f>
         <v>0.23114595286485684</v>
       </c>
-      <c r="U16" s="39">
+      <c r="U16" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!V$11</f>
         <v>0.19793467405902224</v>
       </c>
-      <c r="V16" s="39">
+      <c r="V16" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!W$11</f>
         <v>0.19937108210121399</v>
       </c>
-      <c r="W16" s="39">
+      <c r="W16" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!X$11</f>
         <v>0.16367067442227504</v>
       </c>
-      <c r="X16" s="39">
+      <c r="X16" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!Y$11</f>
         <v>0.26990156647129437</v>
       </c>
-      <c r="Y16" s="39">
+      <c r="Y16" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!Z$11</f>
         <v>0.63176289604270419</v>
       </c>
-      <c r="Z16" s="39">
+      <c r="Z16" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AA$11</f>
         <v>0.1308413967006811</v>
       </c>
-      <c r="AA16" s="39">
+      <c r="AA16" s="35">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AB$11</f>
         <v>8.608185894025415E-2</v>
       </c>
-      <c r="AB16" s="39">
+      <c r="AB16" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AC$11</f>
         <v>0.10036058949364497</v>
       </c>
-      <c r="AC16" s="39">
+      <c r="AC16" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AD$11</f>
         <v>0.19634867265388245</v>
       </c>
-      <c r="AD16" s="39">
+      <c r="AD16" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AE$11</f>
         <v>0.25335923496536433</v>
       </c>
-      <c r="AE16" s="39">
+      <c r="AE16" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AF$11</f>
         <v>0.16648559740833901</v>
       </c>
-      <c r="AF16" s="39">
+      <c r="AF16" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AG$11</f>
         <v>0.43752686364854254</v>
       </c>
-      <c r="AG16" s="39">
+      <c r="AG16" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A25,FALSE)*1000000/Source!AH$11</f>
         <v>0.59683627261839367</v>
       </c>
@@ -64995,129 +64995,129 @@
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="32">
         <v>43921</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="32">
         <v>43922</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!$E$11</f>
         <v>7.7969593007817681E-2</v>
       </c>
-      <c r="E17" s="39" t="e">
+      <c r="E17" s="35" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!F$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!G$11</f>
         <v>0.18016106978848034</v>
       </c>
-      <c r="G17" s="39" t="e">
+      <c r="G17" s="35" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!H$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!I$11</f>
         <v>0.22164539362896149</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!J$11</f>
         <v>0.15621462017565144</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!K$11</f>
         <v>0.10968542802348041</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!L$11</f>
         <v>0.14010749356333635</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!M$11</f>
         <v>0.13158862366379995</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!N$11</f>
         <v>0.16887945263220702</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!O$11</f>
         <v>0.11213791538638129</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!P$11</f>
         <v>5.6374894234255922E-2</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!Q$11</f>
         <v>0.27805434653125166</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!R$11</f>
         <v>0.15037836806879384</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!S$11</f>
         <v>4.2106231814354918E-2</v>
       </c>
-      <c r="S17" s="39" t="e">
+      <c r="S17" s="35" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!T$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!U$11</f>
         <v>0.23309070094523013</v>
       </c>
-      <c r="U17" s="39">
+      <c r="U17" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!V$11</f>
         <v>0.18580521526804727</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V17" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!W$11</f>
         <v>0.19751421117064782</v>
       </c>
-      <c r="W17" s="39">
+      <c r="W17" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!X$11</f>
         <v>0.15494037177767306</v>
       </c>
-      <c r="X17" s="39">
+      <c r="X17" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!Y$11</f>
         <v>0.26571051121351708</v>
       </c>
-      <c r="Y17" s="39">
+      <c r="Y17" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!Z$11</f>
         <v>0.60130939234568337</v>
       </c>
-      <c r="Z17" s="39">
+      <c r="Z17" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AA$11</f>
         <v>0.1248387271501907</v>
       </c>
-      <c r="AA17" s="39" t="e">
+      <c r="AA17" s="35" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AB$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB17" s="39">
+      <c r="AB17" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AC$11</f>
         <v>7.8670491302098661E-2</v>
       </c>
-      <c r="AC17" s="39">
+      <c r="AC17" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AD$11</f>
         <v>0.18036648099492839</v>
       </c>
-      <c r="AD17" s="39">
+      <c r="AD17" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AE$11</f>
         <v>0.25730867560819154</v>
       </c>
-      <c r="AE17" s="39">
+      <c r="AE17" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AF$11</f>
         <v>0.16494663414611277</v>
       </c>
-      <c r="AF17" s="39">
+      <c r="AF17" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AG$11</f>
         <v>0.43175139244066452</v>
       </c>
-      <c r="AG17" s="39">
+      <c r="AG17" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A26,FALSE)*1000000/Source!AH$11</f>
         <v>0.58981690536196785</v>
       </c>
@@ -65126,129 +65126,129 @@
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="32">
         <v>43951</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="32">
         <v>43952</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!$E$11</f>
         <v>7.7426296237871867E-2</v>
       </c>
-      <c r="E18" s="39" t="e">
+      <c r="E18" s="35" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!F$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!G$11</f>
         <v>0.17801986641482254</v>
       </c>
-      <c r="G18" s="39" t="e">
+      <c r="G18" s="35" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!H$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!I$11</f>
         <v>0.2239185298595569</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!J$11</f>
         <v>0.15767088570644697</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!K$11</f>
         <v>0.10169528309800833</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!L$11</f>
         <v>0.12713252170385123</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!M$11</f>
         <v>0.14066525687434811</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!N$11</f>
         <v>0.18884024179622011</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!O$11</f>
         <v>0.11855538943767924</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!P$11</f>
         <v>5.4333542682637306E-2</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!Q$11</f>
         <v>0.28023940431130584</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!R$11</f>
         <v>0.15529765294794742</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!S$11</f>
         <v>7.9345132358012646E-2</v>
       </c>
-      <c r="S18" s="39" t="e">
+      <c r="S18" s="35" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!T$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!U$11</f>
         <v>0.23908054832300285</v>
       </c>
-      <c r="U18" s="39">
+      <c r="U18" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!V$11</f>
         <v>0.17991589449753953</v>
       </c>
-      <c r="V18" s="39">
+      <c r="V18" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!W$11</f>
         <v>0.19535713000553306</v>
       </c>
-      <c r="W18" s="39">
+      <c r="W18" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!X$11</f>
         <v>0.1491751834420276</v>
       </c>
-      <c r="X18" s="39">
+      <c r="X18" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!Y$11</f>
         <v>0.2634904167314886</v>
       </c>
-      <c r="Y18" s="39">
+      <c r="Y18" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!Z$11</f>
         <v>0.56984961337631868</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="Z18" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AA$11</f>
         <v>0.12513840422230188</v>
       </c>
-      <c r="AA18" s="39" t="e">
+      <c r="AA18" s="35" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AB$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB18" s="39">
+      <c r="AB18" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AC$11</f>
         <v>6.6727205602575043E-2</v>
       </c>
-      <c r="AC18" s="39">
+      <c r="AC18" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AD$11</f>
         <v>0.18569914412436547</v>
       </c>
-      <c r="AD18" s="39">
+      <c r="AD18" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AE$11</f>
         <v>0.26645207661923709</v>
       </c>
-      <c r="AE18" s="39">
+      <c r="AE18" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AF$11</f>
         <v>0.16552918324023186</v>
       </c>
-      <c r="AF18" s="39">
+      <c r="AF18" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AG$11</f>
         <v>0.4488900437259179</v>
       </c>
-      <c r="AG18" s="39">
+      <c r="AG18" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A27,FALSE)*1000000/Source!AH$11</f>
         <v>0.59780621987020288</v>
       </c>
@@ -65257,129 +65257,129 @@
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="32">
         <v>43982</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="32">
         <v>43983</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!$E$11</f>
         <v>7.5290844003072871E-2</v>
       </c>
-      <c r="E19" s="39" t="e">
+      <c r="E19" s="35" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!F$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!G$11</f>
         <v>0.18135884322542936</v>
       </c>
-      <c r="G19" s="39" t="e">
+      <c r="G19" s="35" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!H$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!I$11</f>
         <v>0.22466220579494764</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!J$11</f>
         <v>0.16525656961327306</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!K$11</f>
         <v>9.4620542020724438E-2</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="35">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!L$11</f>
         <v>0.12261710858246345</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="35">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!M$11</f>
         <v>0.13321062589547406</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!N$11</f>
         <v>0.19388118849745822</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="35">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!O$11</f>
         <v>0.12109599301186108</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!P$11</f>
         <v>6.0706405465787837E-2</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!Q$11</f>
         <v>0.28155422961957083</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!R$11</f>
         <v>0.15624246290781776</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!S$11</f>
         <v>8.7235238212288221E-2</v>
       </c>
-      <c r="S19" s="39" t="e">
+      <c r="S19" s="35" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!T$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T19" s="39">
+      <c r="T19" s="35">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!U$11</f>
         <v>0.2458533066380314</v>
       </c>
-      <c r="U19" s="39">
+      <c r="U19" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!V$11</f>
         <v>0.20453452628238633</v>
       </c>
-      <c r="V19" s="39">
+      <c r="V19" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!W$11</f>
         <v>0.1999734202695598</v>
       </c>
-      <c r="W19" s="39">
+      <c r="W19" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!X$11</f>
         <v>0.16416731913276036</v>
       </c>
-      <c r="X19" s="39">
+      <c r="X19" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!Y$11</f>
         <v>0.26268098939702028</v>
       </c>
-      <c r="Y19" s="39">
+      <c r="Y19" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!Z$11</f>
         <v>0.57077413682995559</v>
       </c>
-      <c r="Z19" s="39">
+      <c r="Z19" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AA$11</f>
         <v>0.12438223875641173</v>
       </c>
-      <c r="AA19" s="39" t="e">
+      <c r="AA19" s="35" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AB$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB19" s="39">
+      <c r="AB19" s="35">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AC$11</f>
         <v>7.0474442970161352E-2</v>
       </c>
-      <c r="AC19" s="39">
+      <c r="AC19" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AD$11</f>
         <v>0.18315990861239931</v>
       </c>
-      <c r="AD19" s="39">
+      <c r="AD19" s="35">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AE$11</f>
         <v>0.26439244258564221</v>
       </c>
-      <c r="AE19" s="39">
+      <c r="AE19" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AF$11</f>
         <v>0.16989881823227904</v>
       </c>
-      <c r="AF19" s="39">
+      <c r="AF19" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AG$11</f>
         <v>0.45151683262318787</v>
       </c>
-      <c r="AG19" s="39">
+      <c r="AG19" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A28,FALSE)*1000000/Source!AH$11</f>
         <v>0.61258674444513839</v>
       </c>
@@ -65388,135 +65388,135 @@
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="32">
         <v>44012</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="32">
         <v>44013</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="35">
         <f>VLOOKUP(D$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!$E$11</f>
         <v>7.6377698185970608E-2</v>
       </c>
-      <c r="E20" s="39" t="e">
+      <c r="E20" s="35" t="e">
         <f>VLOOKUP(E$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!F$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="35">
         <f>VLOOKUP(F$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!G$11</f>
         <v>0.18293443127873057</v>
       </c>
-      <c r="G20" s="39" t="e">
+      <c r="G20" s="35" t="e">
         <f>VLOOKUP(G$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!H$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="35">
         <f>VLOOKUP(H$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!I$11</f>
         <v>0.22547190938009407</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="35">
         <f>VLOOKUP(I$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!J$11</f>
         <v>0.16743962766203557</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="35">
         <f>VLOOKUP(J$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!K$11</f>
         <v>8.4492148669804798E-2</v>
       </c>
-      <c r="K20" s="39" t="e">
+      <c r="K20" s="35" t="e">
         <f>VLOOKUP(K$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!L$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="39" t="e">
+      <c r="L20" s="35" t="e">
         <f>VLOOKUP(L$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!M$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="35">
         <f>VLOOKUP(M$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!N$11</f>
         <v>0.20317358655263063</v>
       </c>
-      <c r="N20" s="39" t="e">
+      <c r="N20" s="35" t="e">
         <f>VLOOKUP(N$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!O$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="35">
         <f>VLOOKUP(O$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!P$11</f>
         <v>6.314035403673629E-2</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="35">
         <f>VLOOKUP(P$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!Q$11</f>
         <v>0.2822236634447377</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="35">
         <f>VLOOKUP(Q$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!R$11</f>
         <v>0.15583898392903164</v>
       </c>
-      <c r="R20" s="39">
+      <c r="R20" s="35">
         <f>VLOOKUP(R$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!S$11</f>
         <v>8.4642778218179379E-2</v>
       </c>
-      <c r="S20" s="39" t="e">
+      <c r="S20" s="35" t="e">
         <f>VLOOKUP(S$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!T$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T20" s="39" t="e">
+      <c r="T20" s="35" t="e">
         <f>VLOOKUP(T$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!U$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="35">
         <f>VLOOKUP(U$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!V$11</f>
         <v>0.19768833307991626</v>
       </c>
-      <c r="V20" s="39">
+      <c r="V20" s="35">
         <f>VLOOKUP(V$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!W$11</f>
         <v>0.19908176059787558</v>
       </c>
-      <c r="W20" s="39">
+      <c r="W20" s="35">
         <f>VLOOKUP(W$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!X$11</f>
         <v>0.16225028561306842</v>
       </c>
-      <c r="X20" s="39">
+      <c r="X20" s="35">
         <f>VLOOKUP(X$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!Y$11</f>
         <v>0.26238951751547629</v>
       </c>
-      <c r="Y20" s="39">
+      <c r="Y20" s="35">
         <f>VLOOKUP(Y$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!Z$11</f>
         <v>0.56832161847800799</v>
       </c>
-      <c r="Z20" s="39">
+      <c r="Z20" s="35">
         <f>VLOOKUP(Z$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AA$11</f>
         <v>0.12269381824508639</v>
       </c>
-      <c r="AA20" s="39" t="e">
+      <c r="AA20" s="35" t="e">
         <f>VLOOKUP(AA$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AB$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB20" s="39" t="e">
+      <c r="AB20" s="35" t="e">
         <f>VLOOKUP(AB$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AC$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC20" s="39">
+      <c r="AC20" s="35">
         <f>VLOOKUP(AC$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AD$11</f>
         <v>0.20691248612255778</v>
       </c>
-      <c r="AD20" s="39" t="e">
+      <c r="AD20" s="35" t="e">
         <f>VLOOKUP(AD$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AE$11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AE20" s="39">
+      <c r="AE20" s="35">
         <f>VLOOKUP(AE$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AF$11</f>
         <v>0.17400132222366557</v>
       </c>
-      <c r="AF20" s="39">
+      <c r="AF20" s="35">
         <f>VLOOKUP(AF$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AG$11</f>
         <v>0.45954717285034519</v>
       </c>
-      <c r="AG20" s="39">
+      <c r="AG20" s="35">
         <f>VLOOKUP(AG$1,'1_RAW_International Liquidity'!$B$8:$W$195,Source!$A29,FALSE)*1000000/Source!AH$11</f>
         <v>0.61377764438311821</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="D21" s="37"/>
+      <c r="D21" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -65527,14 +65527,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106EA48-1F09-3449-9638-4B885BA2028F}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.15">
@@ -65570,15 +65581,107 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="31" t="s">
         <v>1280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="E10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="W10" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="X10" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB10" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC10" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD10" s="24" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE10" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG10" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A11" s="38">
+      <c r="A11" s="34">
         <v>4</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>1276</v>
       </c>
       <c r="E11" s="30">
@@ -65703,10 +65806,10 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A12" s="38">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="31" t="s">
         <v>1277</v>
       </c>
       <c r="E12" s="30">
@@ -65831,87 +65934,87 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A13" s="38">
+      <c r="A13" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A14" s="38">
+      <c r="A14" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A16" s="38">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38">
+      <c r="A17" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="38">
+      <c r="A18" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38">
+      <c r="A19" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38">
+      <c r="A20" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38">
+      <c r="A21" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38">
+      <c r="A22" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38">
+      <c r="A23" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38">
+      <c r="A24" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38">
+      <c r="A25" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38">
+      <c r="A26" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="38">
+      <c r="A27" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="38">
+      <c r="A28" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="38">
+      <c r="A29" s="34">
         <v>22</v>
       </c>
     </row>

--- a/Data/InternationalReserves.xlsx
+++ b/Data/InternationalReserves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timodaehler/Desktop/COVID19-DOMINANCE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073880B-5930-B14C-AC0D-C256FA8C6CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF597FB-48F6-8A46-BEF7-544B6F333BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_RAW_International Liquidity" sheetId="1" r:id="rId1"/>
@@ -59353,7 +59353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32C5C5-2D54-2F44-BB40-8CDBB2B4A675}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -60266,8 +60266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C4AC6A-12FC-FE4B-9D9A-C62171608217}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
